--- a/Output_testing/R1_201907/Country/HKD/MN/MACEDONIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MACEDONIA_201907_HKD_MN.xlsx
@@ -544,17 +544,25 @@
       <c r="C7" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.263213</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0.340718</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.206281</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.076666</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>29.44573406328714</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/MACEDONIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MACEDONIA_201907_HKD_MN.xlsx
@@ -818,136 +818,467 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>106.589577</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>77.2786067157848</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>102.50761</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>70.73597568276317</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>118.498107</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>79.42449139764726</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>58.16768</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>83.63087554235894</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-19.01941787716606</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>3.340964</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>2.422235365542311</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>6.493057</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>4.480571950304911</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>5.891741</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>3.948995846589057</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>3.171697</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>4.560123372035351</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>12.48428899733303</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.3107998539364011</v>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.2331981631237785</v>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.2460301731559323</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>1.216349</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>1.748811914710588</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>691.929970766897</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>3.112689</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>2.256733498994461</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>0.866829</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.5981604201396746</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>1.039811</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.6969432838676402</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>0.955414</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>1.373651301296998</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>2.688631436620192</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>OTHER PLASTICS, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.1457720749590431</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>0.887625</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.276187324357553</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>995.8333333333334</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>4.770204</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>3.458449965235002</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>21.915962</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>15.12323772933894</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>9.079406000000001</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>6.085558849836706</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>0.718651</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.033244102900301</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-91.41836809387969</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>4.302125</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>3.119087581303993</v>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.09381516262059666</v>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.1380312470726413</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>0.673208</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.9679082002603574</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>435.0266635936644</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.1218714347135139</v>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.1898157321098864</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>0.572746</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.3838884932570009</v>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.6165309308484823</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>43.88799409435609</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>0.6450900000000001</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.4676972909488665</v>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.3395861432838724</v>
+      </c>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.3348502916245811</v>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.5597036625817793</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>96.11685701187412</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>0.701916</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.5088967611862912</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>1.467687</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.012785996492432</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>1.737051</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.164275073244626</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.4745842504832691</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-75.29741926068947</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>13.869614</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>10.05562153235436</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>10.423581</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>7.192853019822744</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>11.086993</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>7.431163268745511</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>2.614061</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>3.758379398166376</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-66.85617207610173</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -979,136 +1310,589 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>OTHER TEXTILE FABRICS, WOVEN</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>28.83102278382907</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>32.49725579511502</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>34.80931350924224</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>32.33115070565831</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-55.47911989223171</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>COPPER</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>34.00363963785983</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>51.86547232608785</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>53.94486162079881</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>32.32593326898495</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-75.46941967157946</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>27.77294434545406</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>13.95875768230619</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>8.953320955395796</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>24.81282445934313</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>13.47530422333572</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>9.392393232857039</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>1.67851419649094</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>2.292503914563145</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>8.210940964704042</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>53.98727984344423</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>2.319150601309576</v>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>WORN CLOTHING AND OTHER WORN TEXTILE ARTICLES; RAGS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1140,136 +1924,467 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>106.589577</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>77.42636122006968</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>102.50761</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>70.90267812320005</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>118.498107</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>79.53445718278667</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>58.16768</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>83.7231610111841</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-19.01941787716606</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>3.340964</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>2.426866610862419</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>6.493057</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>4.491131248758906</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>5.891741</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>3.954463359457453</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>3.171697</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>4.565155402616876</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>12.48428899733303</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.311394094442303</v>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.2337477378277803</v>
+      </c>
+      <c r="G46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.2463708099127183</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>1.214571</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>1.748182554169513</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>690.7723659281347</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>3.112689</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>2.261048309439651</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>0.866829</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.5995700960626764</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>1.039811</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.6979082244553543</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>0.955414</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>1.375167105759409</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>2.688631436620192</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>OTHER PLASTICS, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.1459739011261635</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>0.887625</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.277595578722622</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>995.8333333333334</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>4.770204</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.465062423480874</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>21.915962</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>15.15887844274472</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>9.079406000000001</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>6.093984503500435</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>0.718651</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.034384272913213</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-91.41836809387969</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>4.302125</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>3.125051188296696</v>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.09403625544370234</v>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.1382223558124143</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>0.673208</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.9689762730440208</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>435.0266635936644</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.1221044494402003</v>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.1902630680725363</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>0.572746</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.3844199993305575</v>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.6172112638669948</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>43.88799409435609</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>0.6450900000000001</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.4685915149044521</v>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.340386440986386</v>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.3353139027170123</v>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.5603212875267478</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>96.11685701187412</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>0.677194</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.4919117678838698</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1.461968</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.011217084569805</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>1.732322</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.162713003810258</v>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.46604729207239</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-75.69415616928035</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>13.631123</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>9.901608421179866</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>10.088582</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>6.978091502333434</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>10.885441</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>7.306172757090968</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>2.545468</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>3.663797958124113</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-67.00006248740853</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1301,136 +2416,509 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>0.829055</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>5.484718002647177</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>5.428905</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>35.88528274448888</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>5.440329</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>52.14170107187846</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>3.245415</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>74.08190699195841</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>10.16003918412567</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>9.006156000000001</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>59.58136184915222</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>6.721067</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>44.42652609313547</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>3.1869</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>30.54417979978223</v>
+      </c>
+      <c r="I58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>9.780003729872329</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-66.98196306300406</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>0.798642</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>5.283516962167946</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>1.584385</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>10.47284925802294</v>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>1.966830874339486</v>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>4.41551599496627</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>91.24721933857333</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>0.2889664002521052</v>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>3.623637164228744</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>3.545615722256449</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>1.43939</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>9.522466236655372</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>0.744192</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>4.919139372707142</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>0.515637</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>4.942015513326527</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.581885877320071</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-84.68210392297286</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.5183527778695839</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.4838533913873062</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.085794596341758</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-5.778068298866968</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.4418775226623238</v>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.5570611759262319</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.5575182587948577</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.8531911751312018</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-19.35400349537187</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.8911777779527243</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.215103942889249</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.2104422968602147</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.6306999536847555</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>183.6464428703418</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>0.821802</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>5.436734865613808</v>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.3248834980335129</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.7906465745405362</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.401748794240018</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-52.61429109902536</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>2.019181</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>13.35814678314844</v>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>1.680801136926992</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>0.842404</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>8.07384581883829</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
